--- a/public/Ticket Approval.xlsx
+++ b/public/Ticket Approval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imirs\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\i-mirs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692FD0DF-343D-4F9D-B698-BDB255CE8D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CDA9D-71F8-422E-828C-4B0365DE3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Export" sheetId="3" r:id="rId1"/>
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,11 +200,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -232,43 +227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -343,6 +301,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -355,41 +328,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -916,7 +876,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -935,169 +895,169 @@
   <sheetData>
     <row r="1" spans="1:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="14" t="str">
         <f>'Sheet Export'!A2</f>
         <v>2023-04-10 11:09:33.000</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="14" t="str">
         <f>'Sheet Export'!E2</f>
         <v>RE20230410001</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14">
         <f>'Sheet Export'!I2</f>
         <v>11480</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="str">
         <f>'Sheet Export'!H2</f>
         <v>RCY OP 60</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="14" t="str">
         <f>'Sheet Export'!K2</f>
         <v>SPROCKET LADLE DCM 7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>'Sheet Export'!L2</f>
         <v>Y003999 [DRAWING]</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="str">
         <f>'Sheet Export'!N2</f>
         <v>qwewqe</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="14">
         <f>'Sheet Export'!M2</f>
         <v>15</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="14" t="str">
         <f>'Sheet Export'!O2</f>
         <v>qweqwe</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="14" t="str">
         <f>'Sheet Export'!P2</f>
         <v>Riko</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/public/Ticket Approval.xlsx
+++ b/public/Ticket Approval.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\i-mirs\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ADI DARMONO\i-mirs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CDA9D-71F8-422E-828C-4B0365DE3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF333608-7C97-48FF-8531-AA29BC36C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Export" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$4:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$B$2:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -342,14 +342,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -375,12 +375,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99392</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>46383</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="927434" cy="369845"/>
+    <xdr:ext cx="2857500" cy="339004"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
@@ -394,8 +394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1179444" y="46383"/>
-          <a:ext cx="927434" cy="369845"/>
+          <a:off x="165652" y="46383"/>
+          <a:ext cx="2857500" cy="339004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,14 +403,14 @@
         <a:noFill/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:rPr lang="en-US" sz="1600" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -727,31 +727,31 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -813,7 +813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -873,28 +873,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F1BF87-762F-440D-88CA-B1BF3A57C479}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.21875" style="1"/>
-    <col min="10" max="10" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" style="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -902,18 +905,18 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="14" t="str">
@@ -924,10 +927,10 @@
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="14" t="str">
@@ -938,10 +941,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14">
@@ -952,10 +955,10 @@
       <c r="F6" s="14"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="str">
@@ -966,10 +969,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="14" t="str">
@@ -980,10 +983,10 @@
       <c r="F8" s="14"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="str">
@@ -994,10 +997,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -1008,10 +1011,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="14">
@@ -1022,10 +1025,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -1036,10 +1039,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -1050,7 +1053,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1059,11 +1062,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D4:F4"/>
@@ -1077,8 +1081,9 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.75" header="0.27" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0.27559055118110237" footer="0"/>
+  <pageSetup paperSize="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public/Ticket Approval.xlsx
+++ b/public/Ticket Approval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ADI DARMONO\i-mirs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imirs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF333608-7C97-48FF-8531-AA29BC36C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DDCC16-413A-4E30-97B5-E6CA45010786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Export" sheetId="3" r:id="rId1"/>
@@ -724,34 +724,34 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -813,7 +813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -879,25 +879,25 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" style="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="7.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -905,7 +905,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -913,7 +913,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="13" t="s">
@@ -927,7 +927,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
@@ -941,35 +941,35 @@
       <c r="F5" s="14"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14">
-        <f>'Sheet Export'!I2</f>
-        <v>11480</v>
+      <c r="D6" s="14" t="str">
+        <f>'Sheet Export'!H2</f>
+        <v>RCY OP 60</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f>'Sheet Export'!H2</f>
-        <v>RCY OP 60</v>
+        <f>'Sheet Export'!G2</f>
+        <v>CYLINDER 2</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="13" t="s">
@@ -983,7 +983,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="13" t="s">
@@ -997,7 +997,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13" t="s">
@@ -1011,7 +1011,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="13" t="s">
@@ -1025,7 +1025,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="13" t="s">
@@ -1039,7 +1039,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="13" t="s">
@@ -1053,7 +1053,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1062,12 +1062,11 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D4:F4"/>
